--- a/data/air_info/长春-北京.xlsx
+++ b/data/air_info/长春-北京.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E404DDC-9783-4C56-BBE9-657F71A87C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4D8038-F97A-49CB-B729-0F0E54813887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,45 +33,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
-    <t>行程时间：1 小时 55 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 1654</t>
   </si>
   <si>
-    <t>行程时间：1 小时 50 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737MAX 8 PassengerCA 1610</t>
   </si>
   <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 8666</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
     <t>南航经济舱Airbus A321CZ 6143</t>
   </si>
   <si>
     <t>南航经济舱Airbus A320CZ 6193</t>
   </si>
   <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
-  <si>
     <t>南航经济舱Airbus A320CZ 6149</t>
   </si>
   <si>
     <t>国航经济舱Boeing 737CA 1650</t>
   </si>
   <si>
-    <t>行程时间：2 小时 10 分钟</t>
-  </si>
-  <si>
     <t>南航经济舱Airbus A321CZ 6167</t>
   </si>
   <si>
@@ -112,7 +94,24 @@
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 50 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>2 小时</t>
+  </si>
+  <si>
+    <t>2 小时 5 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 10 分钟</t>
   </si>
 </sst>
 </file>
@@ -467,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -478,33 +477,32 @@
     <col min="4" max="4" width="28.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="30.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -512,23 +510,22 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>0.41319444444444442</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(1500,2000)</f>
-        <v>1664</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -536,23 +533,22 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>0.49305555555555558</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G12" ca="1" si="0">RANDBETWEEN(1500,2000)</f>
-        <v>1577</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -560,23 +556,22 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>0.54861111111111116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1827</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -584,23 +579,22 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>0.60069444444444442</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1570</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -608,23 +602,22 @@
         <v>0.5625</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>0.65625</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1855</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,23 +625,22 @@
         <v>0.60763888888888884</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>0.69444444444444442</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1516</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -656,23 +648,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>0.76041666666666663</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1770</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -680,23 +671,22 @@
         <v>0.6875</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>0.77777777777777779</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1957</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -704,23 +694,22 @@
         <v>0.75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>0.84375</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1932</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,23 +717,22 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>0.91319444444444442</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1623</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -752,23 +740,22 @@
         <v>0.90625</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>0.98611111111111116</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1775</v>
+        <v>1563</v>
       </c>
     </row>
   </sheetData>
